--- a/src/main/java/org/example/Client.xlsx
+++ b/src/main/java/org/example/Client.xlsx
@@ -65,7 +65,7 @@
     <t>589646@163.com</t>
   </si>
   <si>
-    <t>597812</t>
+    <t>18596615</t>
   </si>
   <si>
     <t>铜牌</t>
